--- a/TRL/models/gradual_models_no_rules_22_03_2023_12_22_26.xlsx
+++ b/TRL/models/gradual_models_no_rules_22_03_2023_12_22_26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestEnvGitEnhance\testGitEnhance\TRL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D2EBD2D9-83E4-4DB6-A9C7-7AB5FF3F6358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A5C7A639-6419-4D88-A3DE-6D7F39AE4BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gradual_models_no_rules_22_03_2" sheetId="1" r:id="rId1"/>
@@ -694,22 +694,190 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>gradual_models_no_rules_22_03_2!$I$1</c:f>
+              <c:f>gradual_models_no_rules_22_03_2!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>num_of_overrides</c:v>
+                  <c:v>num_of_steps</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>gradual_models_no_rules_22_03_2!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gradual_models_no_rules_22_03_2!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19491</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14767</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16854</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13217</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12170</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11780</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14787</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13442</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10265</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1BDE-44B5-8D28-6CF3C45610F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gradual_models_no_rules_22_03_2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_of_steps_with_override</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -790,76 +958,76 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>gradual_models_no_rules_22_03_2!$I$2:$I$21</c:f>
+              <c:f>gradual_models_no_rules_22_03_2!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1659</c:v>
+                  <c:v>17751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>401</c:v>
+                  <c:v>39702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>629</c:v>
+                  <c:v>29327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1117</c:v>
+                  <c:v>24711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1585</c:v>
+                  <c:v>16746</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1709</c:v>
+                  <c:v>15359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1482</c:v>
+                  <c:v>13987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1744</c:v>
+                  <c:v>12792</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2237</c:v>
+                  <c:v>13259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1791</c:v>
+                  <c:v>10965</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1814</c:v>
+                  <c:v>9462</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1868</c:v>
+                  <c:v>11236</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2070</c:v>
+                  <c:v>11059</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1885</c:v>
+                  <c:v>10185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1747</c:v>
+                  <c:v>9613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1946</c:v>
+                  <c:v>10701</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1423</c:v>
+                  <c:v>8929</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1124</c:v>
+                  <c:v>9633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-1BDE-44B5-8D28-6CF3C45610F2}"/>
+              <c16:uniqueId val="{00000006-1BDE-44B5-8D28-6CF3C45610F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1631,194 +1799,6 @@
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>gradual_models_no_rules_22_03_2!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>num_of_steps</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>gradual_models_no_rules_22_03_2!$A$2:$A$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>96</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>gradual_models_no_rules_22_03_2!$F$2:$F$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>2409</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>7551</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>27980</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>30999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>21141</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>22981</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>14608</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>14448</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>19491</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14767</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>14701</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>16854</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13217</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>12883</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>12170</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>11780</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>14787</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>13442</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>10265</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>8928</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-1BDE-44B5-8D28-6CF3C45610F2}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
                 <c:idx val="5"/>
                 <c:order val="5"/>
                 <c:tx>
@@ -2007,28 +1987,28 @@
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
+                <c:idx val="7"/>
+                <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>gradual_models_no_rules_22_03_2!$H$1</c15:sqref>
+                          <c15:sqref>gradual_models_no_rules_22_03_2!$I$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>num_of_steps_with_override</c:v>
+                        <c:v>num_of_overrides</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:lumMod val="60000"/>
                     </a:schemeClr>
                   </a:solidFill>
@@ -2118,7 +2098,7 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>gradual_models_no_rules_22_03_2!$H$2:$H$21</c15:sqref>
+                          <c15:sqref>gradual_models_no_rules_22_03_2!$I$2:$I$21</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2126,71 +2106,71 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="20"/>
                       <c:pt idx="0">
-                        <c:v>1897</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>17751</c:v>
+                        <c:v>1659</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>39702</c:v>
+                        <c:v>401</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>29327</c:v>
+                        <c:v>629</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>24711</c:v>
+                        <c:v>1117</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>16746</c:v>
+                        <c:v>1585</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>15359</c:v>
+                        <c:v>1709</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>13987</c:v>
+                        <c:v>1482</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>12792</c:v>
+                        <c:v>1744</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>13259</c:v>
+                        <c:v>2237</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>10965</c:v>
+                        <c:v>1791</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>9462</c:v>
+                        <c:v>1814</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>11236</c:v>
+                        <c:v>1868</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>11059</c:v>
+                        <c:v>2070</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>10185</c:v>
+                        <c:v>1885</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>9613</c:v>
+                        <c:v>1747</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>10701</c:v>
+                        <c:v>1946</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>8929</c:v>
+                        <c:v>1423</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>9633</c:v>
+                        <c:v>1124</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-1BDE-44B5-8D28-6CF3C45610F2}"/>
+                    <c16:uniqueId val="{00000007-1BDE-44B5-8D28-6CF3C45610F2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -9289,8 +9269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="C8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10373,8 +10353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
